--- a/SO SACH - LA/CONG NO/CONG NO 2015/C. Thang.xlsx
+++ b/SO SACH - LA/CONG NO/CONG NO 2015/C. Thang.xlsx
@@ -1506,6 +1506,69 @@
     <xf numFmtId="43" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="26" applyFont="1"/>
     <xf numFmtId="165" fontId="30" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1542,76 +1605,43 @@
     <xf numFmtId="165" fontId="15" fillId="4" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="26" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="26" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1635,65 +1665,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="26" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="26" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="24" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="22" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="23" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="24" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="35">
@@ -12765,18 +12765,18 @@
     </row>
     <row r="4" spans="1:22" ht="22.5" customHeight="1">
       <c r="N4" s="3"/>
-      <c r="O4" s="108" t="s">
+      <c r="O4" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="110"/>
-      <c r="S4" s="111" t="s">
+      <c r="P4" s="130"/>
+      <c r="Q4" s="130"/>
+      <c r="R4" s="131"/>
+      <c r="S4" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="112"/>
-      <c r="U4" s="112"/>
-      <c r="V4" s="113"/>
+      <c r="T4" s="133"/>
+      <c r="U4" s="133"/>
+      <c r="V4" s="134"/>
     </row>
     <row r="5" spans="1:22" s="11" customFormat="1" ht="39" customHeight="1">
       <c r="A5" s="4" t="s">
@@ -13473,21 +13473,21 @@
       </c>
     </row>
     <row r="16" spans="1:22" ht="27" customHeight="1">
-      <c r="B16" s="114" t="s">
+      <c r="B16" s="135" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="114"/>
-      <c r="J16" s="114"/>
-      <c r="K16" s="114"/>
-      <c r="L16" s="114"/>
-      <c r="M16" s="114"/>
-      <c r="N16" s="114"/>
+      <c r="C16" s="135"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="135"/>
+      <c r="I16" s="135"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
     </row>
     <row r="17" spans="1:19">
       <c r="B17" s="39"/>
@@ -13508,82 +13508,82 @@
       <c r="A18" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="115" t="s">
+      <c r="B18" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="115"/>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116" t="s">
+      <c r="C18" s="136"/>
+      <c r="D18" s="136"/>
+      <c r="E18" s="137" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="117"/>
-      <c r="G18" s="118" t="s">
+      <c r="F18" s="138"/>
+      <c r="G18" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="119"/>
-      <c r="I18" s="118" t="s">
+      <c r="H18" s="140"/>
+      <c r="I18" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="119"/>
-      <c r="K18" s="116" t="s">
+      <c r="J18" s="140"/>
+      <c r="K18" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="L18" s="117"/>
-      <c r="M18" s="120" t="s">
+      <c r="L18" s="138"/>
+      <c r="M18" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="N18" s="122"/>
-      <c r="O18" s="120" t="s">
+      <c r="N18" s="128"/>
+      <c r="O18" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="P18" s="121"/>
-      <c r="Q18" s="122"/>
-      <c r="R18" s="126" t="s">
+      <c r="P18" s="141"/>
+      <c r="Q18" s="128"/>
+      <c r="R18" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="S18" s="127"/>
+      <c r="S18" s="121"/>
     </row>
     <row r="19" spans="1:19" ht="28.5" customHeight="1">
       <c r="A19" s="26">
         <v>1</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131" t="s">
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="132"/>
-      <c r="G19" s="123">
+      <c r="F19" s="126"/>
+      <c r="G19" s="117">
         <v>9320000</v>
       </c>
-      <c r="H19" s="132"/>
-      <c r="I19" s="131">
+      <c r="H19" s="126"/>
+      <c r="I19" s="125">
         <v>2.5</v>
       </c>
-      <c r="J19" s="132"/>
-      <c r="K19" s="123">
+      <c r="J19" s="126"/>
+      <c r="K19" s="117">
         <f>G19/2*I19</f>
         <v>11650000</v>
       </c>
-      <c r="L19" s="125"/>
-      <c r="M19" s="123">
+      <c r="L19" s="119"/>
+      <c r="M19" s="117">
         <v>8000000</v>
       </c>
-      <c r="N19" s="132"/>
-      <c r="O19" s="123">
+      <c r="N19" s="126"/>
+      <c r="O19" s="117">
         <f>-V15</f>
         <v>-49132762.5</v>
       </c>
-      <c r="P19" s="124"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="128">
+      <c r="P19" s="118"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="122">
         <f>K19+M19+O19</f>
         <v>-29482762.5</v>
       </c>
-      <c r="S19" s="129"/>
+      <c r="S19" s="123"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -13592,6 +13592,15 @@
     <protectedRange password="CC78" sqref="B15" name="Range1_2_1_1"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="B16:N16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="O18:Q18"/>
     <mergeCell ref="O19:Q19"/>
     <mergeCell ref="R18:S18"/>
     <mergeCell ref="R19:S19"/>
@@ -13602,15 +13611,6 @@
     <mergeCell ref="K19:L19"/>
     <mergeCell ref="M18:N18"/>
     <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="B16:N16"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="O18:Q18"/>
   </mergeCells>
   <conditionalFormatting sqref="H6:M6">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
@@ -13631,8 +13631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -14160,37 +14160,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="82" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="161"/>
-      <c r="G1" s="161"/>
-      <c r="H1" s="161" t="s">
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="144"/>
+      <c r="F1" s="144"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="161"/>
-      <c r="J1" s="161"/>
-      <c r="K1" s="161"/>
-      <c r="L1" s="161"/>
-      <c r="M1" s="161"/>
-      <c r="N1" s="162" t="s">
+      <c r="I1" s="144"/>
+      <c r="J1" s="144"/>
+      <c r="K1" s="144"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="144"/>
+      <c r="N1" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="161" t="s">
+      <c r="O1" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="161"/>
-      <c r="Q1" s="161"/>
-      <c r="R1" s="161"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="144"/>
     </row>
     <row r="2" spans="1:18" s="82" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A2" s="157"/>
+      <c r="A2" s="146"/>
       <c r="B2" s="85" t="s">
         <v>92</v>
       </c>
@@ -14222,8 +14222,8 @@
       <c r="L2" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="M2" s="160"/>
-      <c r="N2" s="163"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="143"/>
       <c r="O2" s="85" t="s">
         <v>108</v>
       </c>
@@ -14271,7 +14271,7 @@
       </c>
       <c r="L3" s="83"/>
       <c r="M3" s="84"/>
-      <c r="N3" s="164">
+      <c r="N3" s="110">
         <f>B3-H3</f>
         <v>18700</v>
       </c>
@@ -14279,7 +14279,7 @@
         <f>I3-L3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="165">
+      <c r="P3" s="111">
         <v>0.28000000000000003</v>
       </c>
       <c r="Q3" s="83">
@@ -14325,7 +14325,7 @@
       </c>
       <c r="L4" s="79"/>
       <c r="M4" s="10"/>
-      <c r="N4" s="166">
+      <c r="N4" s="112">
         <f>N3+B4-H4</f>
         <v>40700</v>
       </c>
@@ -14333,7 +14333,7 @@
         <f t="shared" ref="O4:O8" si="4">I4-L4</f>
         <v>0</v>
       </c>
-      <c r="P4" s="167">
+      <c r="P4" s="113">
         <v>0.28000000000000003</v>
       </c>
       <c r="Q4" s="79">
@@ -14379,7 +14379,7 @@
       </c>
       <c r="L5" s="79"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="166">
+      <c r="N5" s="112">
         <f>N4+B5-H5</f>
         <v>62700</v>
       </c>
@@ -14387,7 +14387,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P5" s="167">
+      <c r="P5" s="113">
         <v>0.25</v>
       </c>
       <c r="Q5" s="79">
@@ -14443,7 +14443,7 @@
       <c r="M6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="166">
+      <c r="N6" s="112">
         <f>N5+B6-H6</f>
         <v>54909</v>
       </c>
@@ -14451,7 +14451,7 @@
         <f t="shared" si="4"/>
         <v>78837671.834999979</v>
       </c>
-      <c r="P6" s="167">
+      <c r="P6" s="113">
         <v>0.25</v>
       </c>
       <c r="Q6" s="79">
@@ -14497,7 +14497,7 @@
       <c r="M7" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="N7" s="166">
+      <c r="N7" s="112">
         <f>N6+B7-H7</f>
         <v>52984</v>
       </c>
@@ -14505,14 +14505,14 @@
         <f t="shared" si="4"/>
         <v>6333606.125</v>
       </c>
-      <c r="P7" s="167">
+      <c r="P7" s="113">
         <v>0.25</v>
       </c>
       <c r="Q7" s="79">
         <f t="shared" si="5"/>
         <v>1583401.53125</v>
       </c>
-      <c r="R7" s="168">
+      <c r="R7" s="114">
         <f>Q7</f>
         <v>1583401.53125</v>
       </c>
@@ -14560,7 +14560,7 @@
       <c r="M8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="N8" s="166">
+      <c r="N8" s="112">
         <f>N7+B8-H8</f>
         <v>58484</v>
       </c>
@@ -14568,7 +14568,7 @@
         <f t="shared" si="4"/>
         <v>78141992.919999987</v>
       </c>
-      <c r="P8" s="167">
+      <c r="P8" s="113">
         <v>0.25</v>
       </c>
       <c r="Q8" s="79">
@@ -14581,7 +14581,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" s="82" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A9" s="169"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="80">
         <f>SUM(B3:B8)</f>
         <v>106700</v>
@@ -14638,37 +14638,37 @@
       <c r="M10" s="82"/>
     </row>
     <row r="11" spans="1:18" s="82" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A11" s="156" t="s">
+      <c r="A11" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="B11" s="161" t="s">
+      <c r="B11" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="161"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161" t="s">
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="161"/>
-      <c r="J11" s="161"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="162" t="s">
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="O11" s="161" t="s">
+      <c r="O11" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="161"/>
-      <c r="R11" s="161"/>
+      <c r="P11" s="144"/>
+      <c r="Q11" s="144"/>
+      <c r="R11" s="144"/>
     </row>
     <row r="12" spans="1:18" s="82" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A12" s="157"/>
+      <c r="A12" s="146"/>
       <c r="B12" s="85" t="s">
         <v>92</v>
       </c>
@@ -14700,8 +14700,8 @@
       <c r="L12" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="M12" s="160"/>
-      <c r="N12" s="163"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="143"/>
       <c r="O12" s="85" t="s">
         <v>108</v>
       </c>
@@ -14761,7 +14761,7 @@
       <c r="M13" s="84" t="s">
         <v>94</v>
       </c>
-      <c r="N13" s="164">
+      <c r="N13" s="110">
         <f>B13-H13</f>
         <v>35200</v>
       </c>
@@ -14769,7 +14769,7 @@
         <f t="shared" ref="O13:O15" si="13">I13-L13</f>
         <v>598662900.67692375</v>
       </c>
-      <c r="P13" s="167">
+      <c r="P13" s="113">
         <v>0.28000000000000003</v>
       </c>
       <c r="Q13" s="79">
@@ -14827,7 +14827,7 @@
       <c r="M14" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="N14" s="166">
+      <c r="N14" s="112">
         <f>N13+B14-H14</f>
         <v>17600</v>
       </c>
@@ -14835,7 +14835,7 @@
         <f t="shared" si="13"/>
         <v>189051129.9546566</v>
       </c>
-      <c r="P14" s="167">
+      <c r="P14" s="113">
         <v>0.25</v>
       </c>
       <c r="Q14" s="79">
@@ -14893,7 +14893,7 @@
       <c r="M15" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="N15" s="166">
+      <c r="N15" s="112">
         <f>N14+B15-H15</f>
         <v>0</v>
       </c>
@@ -14901,7 +14901,7 @@
         <f t="shared" si="13"/>
         <v>268100652.36842155</v>
       </c>
-      <c r="P15" s="167">
+      <c r="P15" s="113">
         <v>0.25</v>
       </c>
       <c r="Q15" s="79">
@@ -14914,7 +14914,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" s="82" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A16" s="169"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="80">
         <f>SUM(B13:B15)</f>
         <v>968000</v>
@@ -14967,55 +14967,55 @@
       </c>
     </row>
     <row r="17" spans="1:18" s="82" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="170"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="116"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="116"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="116"/>
+      <c r="N17" s="116"/>
+      <c r="O17" s="116"/>
+      <c r="P17" s="116"/>
+      <c r="Q17" s="116"/>
+      <c r="R17" s="116"/>
     </row>
     <row r="18" spans="1:18" s="82" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A18" s="156" t="s">
+      <c r="A18" s="145" t="s">
         <v>98</v>
       </c>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161" t="s">
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="I18" s="161"/>
-      <c r="J18" s="161"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="162" t="s">
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="O18" s="161" t="s">
+      <c r="O18" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="161"/>
-      <c r="R18" s="161"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
+      <c r="R18" s="144"/>
     </row>
     <row r="19" spans="1:18" s="82" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A19" s="157"/>
+      <c r="A19" s="146"/>
       <c r="B19" s="85" t="s">
         <v>92</v>
       </c>
@@ -15047,8 +15047,8 @@
       <c r="L19" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="160"/>
-      <c r="N19" s="163"/>
+      <c r="M19" s="109"/>
+      <c r="N19" s="143"/>
       <c r="O19" s="85" t="s">
         <v>108</v>
       </c>
@@ -15146,7 +15146,7 @@
       <c r="R21" s="79"/>
     </row>
     <row r="22" spans="1:18" s="82" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A22" s="169"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="80">
         <f>SUM(B20:B21)</f>
         <v>25000</v>
@@ -15202,49 +15202,68 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O23" s="159" t="s">
+      <c r="O23" s="108" t="s">
         <v>118</v>
       </c>
       <c r="P23" s="11"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170">
+      <c r="Q23" s="116"/>
+      <c r="R23" s="116">
         <f>R9+R16+R22</f>
         <v>227022510.52259073</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="26.25" customHeight="1">
-      <c r="E24" s="170">
+      <c r="D24" s="116">
+        <f>D9+D16+D22</f>
+        <v>25093145394</v>
+      </c>
+      <c r="E24" s="116">
         <f>E9+E16+E22</f>
         <v>1206946947</v>
       </c>
-      <c r="F24" s="170">
+      <c r="F24" s="116">
         <f>F9+F16+F22</f>
         <v>2630009234.0999999</v>
       </c>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170">
+      <c r="G24" s="116"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="116">
+        <f>I9+I16+I22</f>
+        <v>26803899734</v>
+      </c>
+      <c r="J24" s="116">
         <f>J9+J16+J22</f>
         <v>2680389973.4000001</v>
       </c>
-      <c r="O24" s="159" t="s">
+      <c r="O24" s="108" t="s">
         <v>119</v>
       </c>
       <c r="P24" s="11"/>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="170">
+      <c r="Q24" s="116"/>
+      <c r="R24" s="116">
         <f>J24-F24</f>
         <v>50380739.300000191</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="26.25" customHeight="1">
-      <c r="O25" s="159" t="s">
+      <c r="D25" s="81">
+        <f>D24+E24+F24</f>
+        <v>28930101575.099998</v>
+      </c>
+      <c r="G25" s="81">
+        <f>I25-D25</f>
+        <v>554188132.30000305</v>
+      </c>
+      <c r="I25" s="81">
+        <f>I24+J24</f>
+        <v>29484289707.400002</v>
+      </c>
+      <c r="O25" s="108" t="s">
         <v>120</v>
       </c>
       <c r="P25" s="11"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170">
+      <c r="Q25" s="116"/>
+      <c r="R25" s="116">
         <f>SUM(R23:R24)</f>
         <v>277403249.82259095</v>
       </c>
@@ -15252,12 +15271,6 @@
     <row r="26" spans="1:18" ht="26.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="O18:R18"/>
     <mergeCell ref="B18:G18"/>
     <mergeCell ref="H18:M18"/>
     <mergeCell ref="A18:A19"/>
@@ -15267,6 +15280,12 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="H11:M11"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="O18:R18"/>
   </mergeCells>
   <pageMargins left="0.16" right="0.15" top="0.16" bottom="0.16" header="0.3" footer="0.3"/>
   <pageSetup scale="73" orientation="landscape" verticalDpi="0" r:id="rId1"/>
@@ -15291,12 +15310,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
     </row>
     <row r="2" spans="1:9" s="76" customFormat="1">
       <c r="A2" s="76" t="s">
@@ -15715,90 +15734,90 @@
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="45"/>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="134"/>
+      <c r="K1" s="167"/>
     </row>
     <row r="2" spans="1:12" s="46" customFormat="1" ht="15">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="168" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
       <c r="E2" s="47"/>
-      <c r="J2" s="136" t="s">
+      <c r="J2" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="K2" s="136"/>
+      <c r="K2" s="169"/>
     </row>
     <row r="3" spans="1:12" s="46" customFormat="1" ht="15">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
       <c r="E3" s="47"/>
-      <c r="J3" s="136"/>
-      <c r="K3" s="136"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
     </row>
     <row r="4" spans="1:12" s="48" customFormat="1" ht="15">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="170" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="137"/>
-      <c r="C4" s="137"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="137"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
+      <c r="K4" s="170"/>
     </row>
     <row r="5" spans="1:12" s="48" customFormat="1" ht="15">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="161" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="133"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="161"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="161"/>
     </row>
     <row r="6" spans="1:12" s="48" customFormat="1" ht="15">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="161" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
-      <c r="K6" s="133"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="161"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
     </row>
     <row r="7" spans="1:12" s="48" customFormat="1" ht="15">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="133"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="133"/>
-      <c r="K7" s="133"/>
+      <c r="A7" s="161"/>
+      <c r="B7" s="161"/>
+      <c r="C7" s="161"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="161"/>
     </row>
     <row r="8" spans="1:12" s="48" customFormat="1" ht="15">
       <c r="C8" s="49"/>
@@ -15812,84 +15831,84 @@
       <c r="K8" s="49"/>
     </row>
     <row r="9" spans="1:12" s="48" customFormat="1" ht="15">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="139" t="s">
+      <c r="B9" s="162"/>
+      <c r="C9" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="E9" s="163" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="140" t="s">
+      <c r="F9" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="141"/>
-      <c r="H9" s="142"/>
-      <c r="I9" s="140" t="s">
+      <c r="G9" s="165"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="141"/>
-      <c r="K9" s="142"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="166"/>
     </row>
     <row r="10" spans="1:12" s="48" customFormat="1" ht="15">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="150" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="143" t="s">
+      <c r="B10" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="143" t="s">
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="143" t="s">
+      <c r="G10" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="143" t="s">
+      <c r="H10" s="150" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="143" t="s">
+      <c r="I10" s="150" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="143" t="s">
+      <c r="J10" s="150" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="153" t="s">
+      <c r="K10" s="151" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="48" customFormat="1" ht="15">
-      <c r="A11" s="143"/>
-      <c r="B11" s="143"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
-      <c r="K11" s="154"/>
+      <c r="A11" s="150"/>
+      <c r="B11" s="150"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="163"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="152"/>
     </row>
     <row r="12" spans="1:12" s="48" customFormat="1" ht="15">
-      <c r="A12" s="143"/>
-      <c r="B12" s="143"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="143"/>
-      <c r="G12" s="143"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="155"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="163"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="153"/>
     </row>
     <row r="13" spans="1:12" s="52" customFormat="1" ht="15">
       <c r="A13" s="50" t="s">
@@ -19770,50 +19789,50 @@
       </c>
     </row>
     <row r="112" spans="1:12">
-      <c r="A112" s="144" t="s">
+      <c r="A112" s="154" t="s">
         <v>91</v>
       </c>
-      <c r="B112" s="145"/>
-      <c r="C112" s="146"/>
-      <c r="D112" s="150"/>
-      <c r="E112" s="150"/>
-      <c r="F112" s="152">
+      <c r="B112" s="155"/>
+      <c r="C112" s="156"/>
+      <c r="D112" s="160"/>
+      <c r="E112" s="160"/>
+      <c r="F112" s="148">
         <f>SUM(F15:F111)</f>
         <v>1117687</v>
       </c>
-      <c r="G112" s="152">
+      <c r="G112" s="148">
         <f t="shared" ref="G112:K112" si="8">SUM(G15:G111)</f>
         <v>26545916791</v>
       </c>
-      <c r="H112" s="152">
+      <c r="H112" s="148">
         <f t="shared" si="8"/>
         <v>2604263690.2000003</v>
       </c>
-      <c r="I112" s="152">
+      <c r="I112" s="148">
         <f t="shared" si="8"/>
         <v>1120191</v>
       </c>
-      <c r="J112" s="152">
+      <c r="J112" s="148">
         <f t="shared" si="8"/>
         <v>26789446425</v>
       </c>
-      <c r="K112" s="152">
+      <c r="K112" s="148">
         <f t="shared" si="8"/>
         <v>2678944642.5</v>
       </c>
     </row>
     <row r="113" spans="1:11">
-      <c r="A113" s="147"/>
-      <c r="B113" s="148"/>
-      <c r="C113" s="149"/>
-      <c r="D113" s="151"/>
-      <c r="E113" s="151"/>
-      <c r="F113" s="151"/>
-      <c r="G113" s="151"/>
-      <c r="H113" s="151"/>
-      <c r="I113" s="151"/>
-      <c r="J113" s="151"/>
-      <c r="K113" s="151"/>
+      <c r="A113" s="157"/>
+      <c r="B113" s="158"/>
+      <c r="C113" s="159"/>
+      <c r="D113" s="149"/>
+      <c r="E113" s="149"/>
+      <c r="F113" s="149"/>
+      <c r="G113" s="149"/>
+      <c r="H113" s="149"/>
+      <c r="I113" s="149"/>
+      <c r="J113" s="149"/>
+      <c r="K113" s="149"/>
     </row>
     <row r="116" spans="1:11">
       <c r="H116" s="73">
@@ -19825,20 +19844,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="H112:H113"/>
-    <mergeCell ref="I112:I113"/>
-    <mergeCell ref="J112:J113"/>
-    <mergeCell ref="K112:K113"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="A112:C113"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:F113"/>
-    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:C12"/>
@@ -19849,12 +19860,20 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="A6:K6"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="A112:C113"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:F113"/>
+    <mergeCell ref="G112:G113"/>
+    <mergeCell ref="H112:H113"/>
+    <mergeCell ref="I112:I113"/>
+    <mergeCell ref="J112:J113"/>
+    <mergeCell ref="K112:K113"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
